--- a/output/Serengeti_Rabies_Incidence.xlsx
+++ b/output/Serengeti_Rabies_Incidence.xlsx
@@ -21,8 +21,7 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t>This data is from the XXX. Please cite (YYY) if used.
-                  For more information, please contact: ZZZ</t>
+    <t>This data is from the XXX. Please cite (YYY) if used. For more information, please contact Katie Hampson (Katie.Hampson@glasgow.ac.uk)</t>
   </si>
   <si>
     <t>Year</t>
@@ -161,7 +160,7 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="14.0"/>
+      <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
     </font>
@@ -432,12 +431,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.0" customWidth="true"/>
-    <col min="2" max="2" width="14.0" customWidth="true"/>
-    <col min="3" max="3" width="14.0" customWidth="true"/>
-    <col min="4" max="4" width="14.0" customWidth="true"/>
-    <col min="5" max="5" width="14.0" customWidth="true"/>
-    <col min="6" max="6" width="14.0" customWidth="true"/>
+    <col min="1" max="1" width="20.0" customWidth="true"/>
+    <col min="2" max="2" width="20.0" customWidth="true"/>
+    <col min="3" max="3" width="20.0" customWidth="true"/>
+    <col min="4" max="4" width="20.0" customWidth="true"/>
+    <col min="5" max="5" width="20.0" customWidth="true"/>
+    <col min="6" max="6" width="20.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -749,7 +748,7 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="B3:G7"/>
+    <mergeCell ref="B3:E7"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -763,14 +762,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.0" customWidth="true"/>
-    <col min="2" max="2" width="14.0" customWidth="true"/>
-    <col min="3" max="3" width="14.0" customWidth="true"/>
-    <col min="4" max="4" width="14.0" customWidth="true"/>
-    <col min="5" max="5" width="14.0" customWidth="true"/>
-    <col min="6" max="6" width="14.0" customWidth="true"/>
-    <col min="7" max="7" width="14.0" customWidth="true"/>
-    <col min="8" max="8" width="14.0" customWidth="true"/>
+    <col min="1" max="1" width="20.0" customWidth="true"/>
+    <col min="2" max="2" width="20.0" customWidth="true"/>
+    <col min="3" max="3" width="20.0" customWidth="true"/>
+    <col min="4" max="4" width="20.0" customWidth="true"/>
+    <col min="5" max="5" width="20.0" customWidth="true"/>
+    <col min="6" max="6" width="20.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
+    <col min="8" max="8" width="20.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/Serengeti_Rabies_Incidence.xlsx
+++ b/output/Serengeti_Rabies_Incidence.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
   <si>
     <t>Animal Cases</t>
   </si>
@@ -475,280 +475,270 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>1</v>
+      <c r="B8" t="s" s="22">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s" s="22">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s" s="22">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s" s="22">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>1</v>
+      <c r="B9" t="s" s="23">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n" s="24">
+        <v>42.0</v>
+      </c>
+      <c r="D9" t="n" s="25">
+        <v>32.0</v>
+      </c>
+      <c r="E9" t="n" s="26">
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="s" s="22">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s" s="22">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s" s="22">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s" s="22">
-        <v>6</v>
+      <c r="B10" t="s" s="23">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n" s="24">
+        <v>603.0</v>
+      </c>
+      <c r="D10" t="n" s="25">
+        <v>306.0</v>
+      </c>
+      <c r="E10" t="n" s="26">
+        <v>18.0</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s" s="23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n" s="24">
-        <v>42.0</v>
+        <v>907.0</v>
       </c>
       <c r="D11" t="n" s="25">
-        <v>32.0</v>
+        <v>469.0</v>
       </c>
       <c r="E11" t="n" s="26">
-        <v>1.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s" s="23">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n" s="24">
-        <v>603.0</v>
+        <v>394.0</v>
       </c>
       <c r="D12" t="n" s="25">
-        <v>306.0</v>
+        <v>220.0</v>
       </c>
       <c r="E12" t="n" s="26">
-        <v>18.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s" s="23">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n" s="24">
-        <v>907.0</v>
+        <v>359.0</v>
       </c>
       <c r="D13" t="n" s="25">
-        <v>469.0</v>
+        <v>165.0</v>
       </c>
       <c r="E13" t="n" s="26">
-        <v>29.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s" s="23">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C14" t="n" s="24">
-        <v>394.0</v>
+        <v>644.0</v>
       </c>
       <c r="D14" t="n" s="25">
-        <v>220.0</v>
+        <v>251.0</v>
       </c>
       <c r="E14" t="n" s="26">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s" s="23">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n" s="24">
-        <v>359.0</v>
+        <v>407.0</v>
       </c>
       <c r="D15" t="n" s="25">
-        <v>165.0</v>
+        <v>100.0</v>
       </c>
       <c r="E15" t="n" s="26">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s" s="23">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16" t="n" s="24">
-        <v>644.0</v>
+        <v>159.0</v>
       </c>
       <c r="D16" t="n" s="25">
-        <v>251.0</v>
+        <v>87.0</v>
       </c>
       <c r="E16" t="n" s="26">
-        <v>2.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s" s="23">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n" s="24">
-        <v>407.0</v>
+        <v>864.0</v>
       </c>
       <c r="D17" t="n" s="25">
-        <v>100.0</v>
+        <v>277.0</v>
       </c>
       <c r="E17" t="n" s="26">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s" s="23">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n" s="24">
-        <v>159.0</v>
+        <v>1873.0</v>
       </c>
       <c r="D18" t="n" s="25">
-        <v>87.0</v>
+        <v>570.0</v>
       </c>
       <c r="E18" t="n" s="26">
-        <v>17.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s" s="23">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C19" t="n" s="24">
-        <v>864.0</v>
+        <v>1163.0</v>
       </c>
       <c r="D19" t="n" s="25">
-        <v>277.0</v>
+        <v>308.0</v>
       </c>
       <c r="E19" t="n" s="26">
-        <v>8.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s" s="23">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" t="n" s="24">
-        <v>1873.0</v>
+        <v>657.0</v>
       </c>
       <c r="D20" t="n" s="25">
-        <v>570.0</v>
+        <v>172.0</v>
       </c>
       <c r="E20" t="n" s="26">
-        <v>69.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s" s="23">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" t="n" s="24">
-        <v>1163.0</v>
+        <v>694.0</v>
       </c>
       <c r="D21" t="n" s="25">
-        <v>308.0</v>
+        <v>191.0</v>
       </c>
       <c r="E21" t="n" s="26">
-        <v>67.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="s" s="23">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C22" t="n" s="24">
-        <v>657.0</v>
+        <v>561.0</v>
       </c>
       <c r="D22" t="n" s="25">
-        <v>172.0</v>
+        <v>184.0</v>
       </c>
       <c r="E22" t="n" s="26">
-        <v>33.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="s" s="23">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C23" t="n" s="24">
-        <v>694.0</v>
+        <v>275.0</v>
       </c>
       <c r="D23" t="n" s="25">
-        <v>191.0</v>
+        <v>92.0</v>
       </c>
       <c r="E23" t="n" s="26">
-        <v>33.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="s" s="23">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C24" t="n" s="24">
-        <v>561.0</v>
+        <v>70.0</v>
       </c>
       <c r="D24" t="n" s="25">
-        <v>184.0</v>
+        <v>39.0</v>
       </c>
       <c r="E24" t="n" s="26">
-        <v>78.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="s" s="23">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C25" t="n" s="24">
-        <v>275.0</v>
+        <v>16.0</v>
       </c>
       <c r="D25" t="n" s="25">
-        <v>92.0</v>
+        <v>15.0</v>
       </c>
       <c r="E25" t="n" s="26">
-        <v>31.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="23">
-        <v>22</v>
-      </c>
-      <c r="C26" t="n" s="24">
-        <v>70.0</v>
-      </c>
-      <c r="D26" t="n" s="25">
-        <v>39.0</v>
-      </c>
-      <c r="E26" t="n" s="26">
-        <v>18.0</v>
+      <c r="A26" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="23">
-        <v>23</v>
-      </c>
-      <c r="C27" t="n" s="24">
-        <v>16.0</v>
-      </c>
-      <c r="D27" t="n" s="25">
-        <v>15.0</v>
-      </c>
-      <c r="E27" t="n" s="26">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
+      <c r="A27" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="B3:E7"/>
+    <mergeCell ref="B3:E5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -808,70 +798,100 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>1</v>
+      <c r="B8" t="s" s="48">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s" s="48">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s" s="48">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s" s="48">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s" s="48">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s" s="48">
+        <v>28</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>1</v>
+      <c r="B9" t="s" s="49">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n" s="50">
+        <v>86.0</v>
+      </c>
+      <c r="D9" t="n" s="51">
+        <v>32.0</v>
+      </c>
+      <c r="E9" t="n" s="52">
+        <v>67.0</v>
+      </c>
+      <c r="F9" t="n" s="53">
+        <v>23.0</v>
+      </c>
+      <c r="G9" t="n" s="54">
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="s" s="48">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s" s="48">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s" s="48">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s" s="48">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s" s="48">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s" s="48">
-        <v>28</v>
+      <c r="B10" t="s" s="49">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n" s="50">
+        <v>330.0</v>
+      </c>
+      <c r="D10" t="n" s="51">
+        <v>203.0</v>
+      </c>
+      <c r="E10" t="n" s="52">
+        <v>268.0</v>
+      </c>
+      <c r="F10" t="n" s="53">
+        <v>169.0</v>
+      </c>
+      <c r="G10" t="n" s="54">
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s" s="49">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n" s="50">
-        <v>86.0</v>
+        <v>364.0</v>
       </c>
       <c r="D11" t="n" s="51">
-        <v>32.0</v>
+        <v>176.0</v>
       </c>
       <c r="E11" t="n" s="52">
-        <v>67.0</v>
+        <v>284.0</v>
       </c>
       <c r="F11" t="n" s="53">
-        <v>23.0</v>
+        <v>132.0</v>
       </c>
       <c r="G11" t="n" s="54">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s" s="49">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n" s="50">
-        <v>330.0</v>
+        <v>229.0</v>
       </c>
       <c r="D12" t="n" s="51">
-        <v>203.0</v>
+        <v>103.0</v>
       </c>
       <c r="E12" t="n" s="52">
-        <v>268.0</v>
+        <v>187.0</v>
       </c>
       <c r="F12" t="n" s="53">
-        <v>169.0</v>
+        <v>81.0</v>
       </c>
       <c r="G12" t="n" s="54">
         <v>2.0</v>
@@ -879,219 +899,219 @@
     </row>
     <row r="13">
       <c r="B13" t="s" s="49">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n" s="50">
-        <v>364.0</v>
+        <v>283.0</v>
       </c>
       <c r="D13" t="n" s="51">
-        <v>176.0</v>
+        <v>91.0</v>
       </c>
       <c r="E13" t="n" s="52">
-        <v>284.0</v>
+        <v>232.0</v>
       </c>
       <c r="F13" t="n" s="53">
-        <v>132.0</v>
+        <v>66.0</v>
       </c>
       <c r="G13" t="n" s="54">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s" s="49">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C14" t="n" s="50">
-        <v>229.0</v>
+        <v>305.0</v>
       </c>
       <c r="D14" t="n" s="51">
-        <v>103.0</v>
+        <v>94.0</v>
       </c>
       <c r="E14" t="n" s="52">
-        <v>187.0</v>
+        <v>244.0</v>
       </c>
       <c r="F14" t="n" s="53">
-        <v>81.0</v>
+        <v>66.0</v>
       </c>
       <c r="G14" t="n" s="54">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s" s="49">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n" s="50">
-        <v>283.0</v>
+        <v>254.0</v>
       </c>
       <c r="D15" t="n" s="51">
-        <v>91.0</v>
+        <v>48.0</v>
       </c>
       <c r="E15" t="n" s="52">
-        <v>232.0</v>
+        <v>207.0</v>
       </c>
       <c r="F15" t="n" s="53">
-        <v>66.0</v>
+        <v>31.0</v>
       </c>
       <c r="G15" t="n" s="54">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s" s="49">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16" t="n" s="50">
-        <v>305.0</v>
+        <v>301.0</v>
       </c>
       <c r="D16" t="n" s="51">
-        <v>94.0</v>
+        <v>57.0</v>
       </c>
       <c r="E16" t="n" s="52">
-        <v>244.0</v>
+        <v>208.0</v>
       </c>
       <c r="F16" t="n" s="53">
-        <v>66.0</v>
+        <v>42.0</v>
       </c>
       <c r="G16" t="n" s="54">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s" s="49">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n" s="50">
-        <v>254.0</v>
+        <v>388.0</v>
       </c>
       <c r="D17" t="n" s="51">
-        <v>48.0</v>
+        <v>130.0</v>
       </c>
       <c r="E17" t="n" s="52">
-        <v>207.0</v>
+        <v>293.0</v>
       </c>
       <c r="F17" t="n" s="53">
-        <v>31.0</v>
+        <v>102.0</v>
       </c>
       <c r="G17" t="n" s="54">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s" s="49">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n" s="50">
-        <v>301.0</v>
+        <v>462.0</v>
       </c>
       <c r="D18" t="n" s="51">
-        <v>57.0</v>
+        <v>195.0</v>
       </c>
       <c r="E18" t="n" s="52">
-        <v>208.0</v>
+        <v>340.0</v>
       </c>
       <c r="F18" t="n" s="53">
-        <v>42.0</v>
+        <v>136.0</v>
       </c>
       <c r="G18" t="n" s="54">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s" s="49">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C19" t="n" s="50">
-        <v>388.0</v>
+        <v>399.0</v>
       </c>
       <c r="D19" t="n" s="51">
-        <v>130.0</v>
+        <v>118.0</v>
       </c>
       <c r="E19" t="n" s="52">
-        <v>293.0</v>
+        <v>233.0</v>
       </c>
       <c r="F19" t="n" s="53">
-        <v>102.0</v>
+        <v>47.0</v>
       </c>
       <c r="G19" t="n" s="54">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s" s="49">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" t="n" s="50">
-        <v>462.0</v>
+        <v>344.0</v>
       </c>
       <c r="D20" t="n" s="51">
-        <v>195.0</v>
+        <v>63.0</v>
       </c>
       <c r="E20" t="n" s="52">
-        <v>340.0</v>
+        <v>161.0</v>
       </c>
       <c r="F20" t="n" s="53">
-        <v>136.0</v>
+        <v>27.0</v>
       </c>
       <c r="G20" t="n" s="54">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s" s="49">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" t="n" s="50">
-        <v>399.0</v>
+        <v>170.0</v>
       </c>
       <c r="D21" t="n" s="51">
-        <v>118.0</v>
+        <v>56.0</v>
       </c>
       <c r="E21" t="n" s="52">
-        <v>233.0</v>
+        <v>139.0</v>
       </c>
       <c r="F21" t="n" s="53">
-        <v>47.0</v>
+        <v>37.0</v>
       </c>
       <c r="G21" t="n" s="54">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="s" s="49">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C22" t="n" s="50">
-        <v>344.0</v>
+        <v>143.0</v>
       </c>
       <c r="D22" t="n" s="51">
-        <v>63.0</v>
+        <v>45.0</v>
       </c>
       <c r="E22" t="n" s="52">
-        <v>161.0</v>
+        <v>103.0</v>
       </c>
       <c r="F22" t="n" s="53">
-        <v>27.0</v>
+        <v>7.0</v>
       </c>
       <c r="G22" t="n" s="54">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="s" s="49">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C23" t="n" s="50">
-        <v>170.0</v>
+        <v>191.0</v>
       </c>
       <c r="D23" t="n" s="51">
-        <v>56.0</v>
+        <v>43.0</v>
       </c>
       <c r="E23" t="n" s="52">
-        <v>139.0</v>
+        <v>150.0</v>
       </c>
       <c r="F23" t="n" s="53">
-        <v>37.0</v>
+        <v>9.0</v>
       </c>
       <c r="G23" t="n" s="54">
         <v>2.0</v>
@@ -1099,97 +1119,57 @@
     </row>
     <row r="24">
       <c r="B24" t="s" s="49">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C24" t="n" s="50">
-        <v>143.0</v>
+        <v>116.0</v>
       </c>
       <c r="D24" t="n" s="51">
-        <v>45.0</v>
+        <v>7.0</v>
       </c>
       <c r="E24" t="n" s="52">
-        <v>103.0</v>
+        <v>112.0</v>
       </c>
       <c r="F24" t="n" s="53">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="G24" t="n" s="54">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="s" s="49">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C25" t="n" s="50">
-        <v>191.0</v>
+        <v>97.0</v>
       </c>
       <c r="D25" t="n" s="51">
-        <v>43.0</v>
+        <v>1.0</v>
       </c>
       <c r="E25" t="n" s="52">
-        <v>150.0</v>
+        <v>97.0</v>
       </c>
       <c r="F25" t="n" s="53">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="G25" t="n" s="54">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="49">
-        <v>22</v>
-      </c>
-      <c r="C26" t="n" s="50">
-        <v>116.0</v>
-      </c>
-      <c r="D26" t="n" s="51">
-        <v>7.0</v>
-      </c>
-      <c r="E26" t="n" s="52">
-        <v>112.0</v>
-      </c>
-      <c r="F26" t="n" s="53">
-        <v>3.0</v>
-      </c>
-      <c r="G26" t="n" s="54">
-        <v>0.0</v>
+      <c r="A26" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="49">
-        <v>23</v>
-      </c>
-      <c r="C27" t="n" s="50">
-        <v>97.0</v>
-      </c>
-      <c r="D27" t="n" s="51">
-        <v>1.0</v>
-      </c>
-      <c r="E27" t="n" s="52">
-        <v>97.0</v>
-      </c>
-      <c r="F27" t="n" s="53">
-        <v>1.0</v>
-      </c>
-      <c r="G27" t="n" s="54">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
+      <c r="A27" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="B3:G7"/>
+    <mergeCell ref="B3:G5"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
